--- a/개발 7팀 최종 팀프로젝트 산출물 제출/4) 개발 0팀_프로젝트_GanttChart.xlsx
+++ b/개발 7팀 최종 팀프로젝트 산출물 제출/4) 개발 0팀_프로젝트_GanttChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\teach\중요) Mini Project_1차_JAVA_Servlet_JSP\6강) 일정관리_Gantt Chart\학습 전_후_언제든 학생 배포 자료\6강) 일정관리_Gantt Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team5_eclipse_share\5team\개발 7팀 최종 팀프로젝트 산출물 제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38488008-7DA4-418D-906D-0EF4C38781D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5B278-36B4-4293-B470-12A2570181CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>담당자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,27 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수행 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장나라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임꺽정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김유신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,15 +115,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김다미</t>
+    <t xml:space="preserve">※ 개발 5팀 최종 프로젝트 - 영화 리뷰                                   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홍길순</t>
+    <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">※ 개발 0팀 프로젝트명 = 000(ㅁㅁㅁ)                                  </t>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정윤정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원종현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,12 +332,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -611,6 +609,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,6 +760,24 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +787,9 @@
     <xf numFmtId="49" fontId="10" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,7 +799,13 @@
     <xf numFmtId="49" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -768,13 +817,34 @@
     <xf numFmtId="49" fontId="10" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,79 +856,24 @@
     <xf numFmtId="49" fontId="10" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1231,82 +1246,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI1048560"/>
+  <dimension ref="A1:AK1048552"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:D2"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="35" width="5.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="37" width="5.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="46" t="s">
+    <row r="1" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="10" t="s">
+    <row r="2" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="D3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="E3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="F3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="G3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="H3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="I3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="J3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -1332,271 +1357,273 @@
       <c r="AG3" s="39"/>
       <c r="AH3" s="39"/>
       <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
     </row>
-    <row r="4" spans="1:35" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+    <row r="4" spans="1:37" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="G4" s="61"/>
-      <c r="H4" s="8">
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="8">
         <v>44046</v>
       </c>
-      <c r="I4" s="8">
+      <c r="K4" s="8">
         <v>44047</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="8">
         <v>44048</v>
       </c>
-      <c r="K4" s="8">
+      <c r="M4" s="8">
         <v>44049</v>
       </c>
-      <c r="L4" s="8">
+      <c r="N4" s="8">
         <v>44050</v>
       </c>
-      <c r="M4" s="9">
+      <c r="O4" s="9">
         <v>44051</v>
       </c>
-      <c r="N4" s="9">
+      <c r="P4" s="9">
         <v>44052</v>
       </c>
-      <c r="O4" s="8">
+      <c r="Q4" s="8">
         <v>44053</v>
       </c>
-      <c r="P4" s="8">
+      <c r="R4" s="8">
         <v>44054</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="S4" s="8">
         <v>44055</v>
       </c>
-      <c r="R4" s="8">
+      <c r="T4" s="8">
         <v>44056</v>
       </c>
-      <c r="S4" s="8">
+      <c r="U4" s="8">
         <v>44057</v>
       </c>
-      <c r="T4" s="9">
+      <c r="V4" s="9">
         <v>44058</v>
       </c>
-      <c r="U4" s="9">
+      <c r="W4" s="9">
         <v>44059</v>
       </c>
-      <c r="V4" s="8">
+      <c r="X4" s="8">
         <v>44060</v>
       </c>
-      <c r="W4" s="8">
+      <c r="Y4" s="8">
         <v>44061</v>
       </c>
-      <c r="X4" s="8">
+      <c r="Z4" s="8">
         <v>44062</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="AA4" s="8">
         <v>44063</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="AB4" s="8">
         <v>44064</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AC4" s="9">
         <v>44065</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AD4" s="9">
         <v>44066</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AE4" s="8">
         <v>44067</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AF4" s="8">
         <v>44068</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AG4" s="8">
         <v>44069</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AH4" s="8">
         <v>44070</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AI4" s="8">
         <v>44071</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AJ4" s="9">
         <v>44072</v>
       </c>
-      <c r="AI4" s="9">
+      <c r="AK4" s="9">
         <v>44073</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+    <row r="5" spans="1:37" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="60"/>
       <c r="G5" s="61"/>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65" t="s">
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65" t="s">
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65" t="s">
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
     </row>
-    <row r="6" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="N6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="O6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="P6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="Q6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="R6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="S6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="T6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="U6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="V6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="W6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="X6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="Y6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="Z6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="21" t="s">
+      <c r="AA6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="AB6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AC6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AD6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AE6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="21" t="s">
+      <c r="AF6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AG6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AH6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AG6" s="21" t="s">
+      <c r="AI6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AH6" s="21" t="s">
+      <c r="AJ6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AI6" s="22" t="s">
+      <c r="AK6" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
-        <v>23</v>
+    <row r="7" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26">
         <v>44046</v>
       </c>
-      <c r="E7" s="26">
+      <c r="G7" s="26">
         <v>44052</v>
       </c>
-      <c r="F7" s="27">
-        <f t="shared" ref="F7:F10" si="0">E7-D7+1</f>
+      <c r="H7" s="27">
+        <f t="shared" ref="H7:H10" si="0">G7-F7+1</f>
         <v>7</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="I7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="29" t="str">
-        <f>IF(AND(H$4&gt;=$D7,H$4&lt;=$E7)," ","")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I7" s="29" t="str">
-        <f t="shared" ref="I7:X21" si="1">IF(AND(I$4&gt;=$D7,I$4&lt;=$E7)," ","")</f>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="J7" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(J$4&gt;=$F7,J$4&lt;=$G7)," ","")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K7" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K7:Z21" si="1">IF(AND(K$4&gt;=$F7,K$4&lt;=$G7)," ","")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L7" s="29" t="str">
@@ -1613,11 +1640,11 @@
       </c>
       <c r="O7" s="29" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P7" s="29" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q7" s="29" t="str">
         <f t="shared" si="1"/>
@@ -1652,15 +1679,15 @@
         <v/>
       </c>
       <c r="Y7" s="29" t="str">
-        <f t="shared" ref="Y7:AI21" si="2">IF(AND(Y$4&gt;=$D7,Y$4&lt;=$E7)," ","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z7" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA7" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AA7:AK21" si="2">IF(AND(AA$4&gt;=$F7,AA$4&lt;=$G7)," ","")</f>
         <v/>
       </c>
       <c r="AB7" s="29" t="str">
@@ -1691,38 +1718,40 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI7" s="30" t="str">
+      <c r="AI7" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ7" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK7" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13">
         <v>44053</v>
       </c>
-      <c r="E8" s="13">
+      <c r="G8" s="13">
         <v>44059</v>
       </c>
-      <c r="F8" s="14">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="23" t="str">
-        <f t="shared" ref="H8:W22" si="3">IF(AND(H$4&gt;=$D8,H$4&lt;=$E8)," ","")</f>
-        <v/>
-      </c>
-      <c r="I8" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J8" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J8:Y22" si="3">IF(AND(J$4&gt;=$F8,J$4&lt;=$G8)," ","")</f>
         <v/>
       </c>
       <c r="K8" s="23" t="str">
@@ -1743,11 +1772,11 @@
       </c>
       <c r="O8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="Q8" s="23" t="str">
         <f t="shared" si="1"/>
@@ -1771,22 +1800,22 @@
       </c>
       <c r="V8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="W8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X8" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y8" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z8" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA8" s="23" t="str">
@@ -1821,40 +1850,42 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI8" s="31" t="str">
+      <c r="AI8" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ8" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK8" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
+    <row r="9" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="66"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
         <v>44060</v>
       </c>
-      <c r="E9" s="13">
+      <c r="G9" s="13">
         <v>44066</v>
       </c>
-      <c r="F9" s="14">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="23" t="str">
+      <c r="J9" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K9" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1901,22 +1932,22 @@
       </c>
       <c r="V9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="W9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="X9" s="23" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y9" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z9" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA9" s="23" t="str">
@@ -1929,11 +1960,11 @@
       </c>
       <c r="AC9" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AD9" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AE9" s="23" t="str">
         <f t="shared" si="2"/>
@@ -1951,40 +1982,42 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI9" s="31" t="str">
+      <c r="AI9" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ9" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK9" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
+    <row r="10" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="66"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13">
         <v>44067</v>
       </c>
-      <c r="E10" s="13">
+      <c r="G10" s="13">
         <v>44073</v>
       </c>
-      <c r="F10" s="14">
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="23" t="str">
+      <c r="J10" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I10" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K10" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2042,11 +2075,11 @@
         <v/>
       </c>
       <c r="Y10" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z10" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA10" s="23" t="str">
@@ -2059,11 +2092,11 @@
       </c>
       <c r="AC10" s="23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AD10" s="23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AE10" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2081,31 +2114,33 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI10" s="31" t="str">
+      <c r="AI10" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ10" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK10" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
+    <row r="11" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="23" t="str">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I11" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K11" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2163,11 +2198,11 @@
         <v/>
       </c>
       <c r="Y11" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z11" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA11" s="23" t="str">
@@ -2202,31 +2237,33 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI11" s="31" t="str">
+      <c r="AI11" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ11" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK11" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+    <row r="12" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="23" t="str">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I12" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K12" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2284,11 +2321,11 @@
         <v/>
       </c>
       <c r="Y12" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z12" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA12" s="23" t="str">
@@ -2323,31 +2360,33 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI12" s="31" t="str">
+      <c r="AI12" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ12" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK12" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
+    <row r="13" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="23" t="str">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K13" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2405,11 +2444,11 @@
         <v/>
       </c>
       <c r="Y13" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z13" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA13" s="23" t="str">
@@ -2444,31 +2483,33 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI13" s="31" t="str">
+      <c r="AI13" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ13" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK13" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="64"/>
+    <row r="14" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="67"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="str">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I14" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K14" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2526,11 +2567,11 @@
         <v/>
       </c>
       <c r="Y14" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z14" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA14" s="37" t="str">
@@ -2565,37 +2606,39 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI14" s="38" t="str">
+      <c r="AI14" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ14" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK14" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
-        <v>24</v>
+    <row r="15" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26">
         <v>44046</v>
       </c>
-      <c r="E15" s="26">
+      <c r="G15" s="26">
         <v>44052</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="str">
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="K15" s="29" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
@@ -2614,11 +2657,11 @@
       </c>
       <c r="O15" s="29" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P15" s="29" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q15" s="29" t="str">
         <f t="shared" si="1"/>
@@ -2653,11 +2696,11 @@
         <v/>
       </c>
       <c r="Y15" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z15" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA15" s="29" t="str">
@@ -2692,35 +2735,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI15" s="30" t="str">
+      <c r="AI15" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ15" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK15" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13">
         <v>44053</v>
       </c>
-      <c r="E16" s="13">
+      <c r="G16" s="13">
         <v>44059</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="23" t="str">
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K16" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2739,11 +2784,11 @@
       </c>
       <c r="O16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="P16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="Q16" s="23" t="str">
         <f t="shared" si="1"/>
@@ -2767,22 +2812,22 @@
       </c>
       <c r="V16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="W16" s="23" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X16" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y16" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z16" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA16" s="23" t="str">
@@ -2817,35 +2862,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI16" s="31" t="str">
+      <c r="AI16" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ16" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK16" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+    <row r="17" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13">
         <v>44060</v>
       </c>
-      <c r="E17" s="13">
+      <c r="G17" s="13">
         <v>44066</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="23" t="str">
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K17" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2892,22 +2939,22 @@
       </c>
       <c r="V17" s="23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="W17" s="23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="X17" s="23" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y17" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z17" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA17" s="23" t="str">
@@ -2920,11 +2967,11 @@
       </c>
       <c r="AC17" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AD17" s="23" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AE17" s="23" t="str">
         <f t="shared" si="2"/>
@@ -2942,35 +2989,37 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI17" s="31" t="str">
+      <c r="AI17" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ17" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK17" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+    <row r="18" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
         <v>44067</v>
       </c>
-      <c r="E18" s="13">
+      <c r="G18" s="13">
         <v>44073</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="23" t="str">
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I18" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K18" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3028,11 +3077,11 @@
         <v/>
       </c>
       <c r="Y18" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z18" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA18" s="23" t="str">
@@ -3045,11 +3094,11 @@
       </c>
       <c r="AC18" s="23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AD18" s="23" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AE18" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3067,31 +3116,33 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI18" s="31" t="str">
+      <c r="AI18" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ18" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK18" s="31" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="23" t="str">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I19" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K19" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3149,11 +3200,11 @@
         <v/>
       </c>
       <c r="Y19" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z19" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA19" s="23" t="str">
@@ -3188,31 +3239,33 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI19" s="31" t="str">
+      <c r="AI19" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ19" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK19" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="23" t="str">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K20" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3270,11 +3323,11 @@
         <v/>
       </c>
       <c r="Y20" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z20" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA20" s="23" t="str">
@@ -3309,31 +3362,33 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI20" s="31" t="str">
+      <c r="AI20" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ20" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK20" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+    <row r="21" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="23" t="str">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I21" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="K21" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3387,15 +3442,15 @@
         <v/>
       </c>
       <c r="X21" s="23" t="str">
-        <f t="shared" ref="X21:AI35" si="4">IF(AND(X$4&gt;=$D21,X$4&lt;=$E21)," ","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y21" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z21" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Z21:AK35" si="4">IF(AND(Z$4&gt;=$F21,Z$4&lt;=$G21)," ","")</f>
         <v/>
       </c>
       <c r="AA21" s="23" t="str">
@@ -3430,27 +3485,29 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AI21" s="31" t="str">
+      <c r="AI21" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ21" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK21" s="31" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
+    <row r="22" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="55"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I22" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3508,11 +3565,11 @@
         <v/>
       </c>
       <c r="X22" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y22" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z22" s="37" t="str">
@@ -3551,35 +3608,37 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI22" s="38" t="str">
+      <c r="AI22" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK22" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
-        <v>27</v>
+    <row r="23" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26">
         <v>44046</v>
       </c>
-      <c r="E23" s="26">
+      <c r="G23" s="26">
         <v>44052</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29" t="str">
-        <f t="shared" ref="H23:W40" si="5">IF(AND(H$4&gt;=$D23,H$4&lt;=$E23)," ","")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I23" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J23:Y40" si="5">IF(AND(J$4&gt;=$F23,J$4&lt;=$G23)," ","")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K23" s="29" t="str">
@@ -3600,11 +3659,11 @@
       </c>
       <c r="O23" s="29" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P23" s="29" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q23" s="29" t="str">
         <f t="shared" si="5"/>
@@ -3635,11 +3694,11 @@
         <v/>
       </c>
       <c r="X23" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y23" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z23" s="29" t="str">
@@ -3678,31 +3737,33 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI23" s="30" t="str">
+      <c r="AI23" s="29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ23" s="29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK23" s="30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
+    <row r="24" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="57"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13">
         <v>44053</v>
       </c>
-      <c r="E24" s="13">
+      <c r="G24" s="13">
         <v>44059</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I24" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3725,11 +3786,11 @@
       </c>
       <c r="O24" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="P24" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="Q24" s="23" t="str">
         <f t="shared" si="5"/>
@@ -3753,18 +3814,18 @@
       </c>
       <c r="V24" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="W24" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X24" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y24" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z24" s="23" t="str">
@@ -3803,31 +3864,33 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI24" s="31" t="str">
+      <c r="AI24" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ24" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK24" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+    <row r="25" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="57"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13">
         <v>44060</v>
       </c>
-      <c r="E25" s="13">
+      <c r="G25" s="13">
         <v>44066</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I25" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3878,18 +3941,18 @@
       </c>
       <c r="V25" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="W25" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="X25" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y25" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z25" s="23" t="str">
@@ -3906,11 +3969,11 @@
       </c>
       <c r="AC25" s="23" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AD25" s="23" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AE25" s="23" t="str">
         <f t="shared" si="4"/>
@@ -3928,31 +3991,33 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI25" s="31" t="str">
+      <c r="AI25" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ25" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK25" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
+    <row r="26" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="57"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13">
         <v>44067</v>
       </c>
-      <c r="E26" s="13">
+      <c r="G26" s="13">
         <v>44073</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I26" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4010,11 +4075,11 @@
         <v/>
       </c>
       <c r="X26" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y26" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z26" s="23" t="str">
@@ -4031,11 +4096,11 @@
       </c>
       <c r="AC26" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AD26" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AE26" s="23" t="str">
         <f t="shared" si="4"/>
@@ -4053,27 +4118,29 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI26" s="31" t="str">
+      <c r="AI26" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ26" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK26" s="31" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+    <row r="27" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="57"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I27" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4131,11 +4198,11 @@
         <v/>
       </c>
       <c r="X27" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y27" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z27" s="23" t="str">
@@ -4174,21 +4241,29 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI27" s="31" t="str">
+      <c r="AI27" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ27" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK27" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+    <row r="28" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
@@ -4214,24 +4289,20 @@
       <c r="AF28" s="23"/>
       <c r="AG28" s="23"/>
       <c r="AH28" s="23"/>
-      <c r="AI28" s="31"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="31"/>
     </row>
-    <row r="29" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
+    <row r="29" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I29" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4289,11 +4360,11 @@
         <v/>
       </c>
       <c r="X29" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y29" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z29" s="23" t="str">
@@ -4332,27 +4403,29 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI29" s="31" t="str">
+      <c r="AI29" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK29" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="55"/>
+    <row r="30" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="58"/>
       <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I30" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="37" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4410,11 +4483,11 @@
         <v/>
       </c>
       <c r="X30" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y30" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z30" s="37" t="str">
@@ -4453,33 +4526,35 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI30" s="38" t="str">
+      <c r="AI30" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK30" s="38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
-        <v>25</v>
+    <row r="31" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26">
         <v>44046</v>
       </c>
-      <c r="E31" s="26">
+      <c r="G31" s="26">
         <v>44052</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I31" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
       <c r="J31" s="29" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -4502,11 +4577,11 @@
       </c>
       <c r="O31" s="29" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P31" s="29" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q31" s="29" t="str">
         <f t="shared" si="5"/>
@@ -4537,11 +4612,11 @@
         <v/>
       </c>
       <c r="X31" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y31" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z31" s="29" t="str">
@@ -4580,31 +4655,33 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI31" s="30" t="str">
+      <c r="AI31" s="29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK31" s="30" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
+    <row r="32" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13">
         <v>44053</v>
       </c>
-      <c r="E32" s="13">
+      <c r="G32" s="13">
         <v>44059</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I32" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4627,11 +4704,11 @@
       </c>
       <c r="O32" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="P32" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="Q32" s="23" t="str">
         <f t="shared" si="5"/>
@@ -4655,18 +4732,18 @@
       </c>
       <c r="V32" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="W32" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X32" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y32" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z32" s="23" t="str">
@@ -4705,31 +4782,33 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI32" s="31" t="str">
+      <c r="AI32" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK32" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
+    <row r="33" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="51"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13">
         <v>44060</v>
       </c>
-      <c r="E33" s="13">
+      <c r="G33" s="13">
         <v>44066</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I33" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4780,18 +4859,18 @@
       </c>
       <c r="V33" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="W33" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="X33" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y33" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z33" s="23" t="str">
@@ -4808,11 +4887,11 @@
       </c>
       <c r="AC33" s="23" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AD33" s="23" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AE33" s="23" t="str">
         <f t="shared" si="4"/>
@@ -4830,31 +4909,33 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI33" s="31" t="str">
+      <c r="AI33" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK33" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+    <row r="34" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13">
         <v>44067</v>
       </c>
-      <c r="E34" s="13">
+      <c r="G34" s="13">
         <v>44073</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I34" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4912,11 +4993,11 @@
         <v/>
       </c>
       <c r="X34" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y34" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z34" s="23" t="str">
@@ -4933,11 +5014,11 @@
       </c>
       <c r="AC34" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AD34" s="23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AE34" s="23" t="str">
         <f t="shared" si="4"/>
@@ -4955,27 +5036,29 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI34" s="31" t="str">
+      <c r="AI34" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ34" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK34" s="31" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="51"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I35" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5033,11 +5116,11 @@
         <v/>
       </c>
       <c r="X35" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y35" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z35" s="23" t="str">
@@ -5076,21 +5159,29 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI35" s="31" t="str">
+      <c r="AI35" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AJ35" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK35" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="51"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
@@ -5116,24 +5207,20 @@
       <c r="AF36" s="23"/>
       <c r="AG36" s="23"/>
       <c r="AH36" s="23"/>
-      <c r="AI36" s="31"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="31"/>
     </row>
-    <row r="37" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
+    <row r="37" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="51"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I37" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5191,15 +5278,15 @@
         <v/>
       </c>
       <c r="X37" s="23" t="str">
-        <f t="shared" ref="X37:AI54" si="6">IF(AND(X$4&gt;=$D37,X$4&lt;=$E37)," ","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y37" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z37" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Z37:AK54" si="6">IF(AND(Z$4&gt;=$F37,Z$4&lt;=$G37)," ","")</f>
         <v/>
       </c>
       <c r="AA37" s="23" t="str">
@@ -5234,27 +5321,29 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI37" s="31" t="str">
+      <c r="AI37" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ37" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK37" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
+    <row r="38" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="52"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I38" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="37" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5308,15 +5397,15 @@
         <v/>
       </c>
       <c r="W38" s="37" t="str">
-        <f t="shared" ref="W38" si="7">IF(AND(W$4&gt;=$D38,W$4&lt;=$E38)," ","")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X38" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y38" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Y38" si="7">IF(AND(Y$4&gt;=$F38,Y$4&lt;=$G38)," ","")</f>
         <v/>
       </c>
       <c r="Z38" s="37" t="str">
@@ -5355,33 +5444,35 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI38" s="38" t="str">
+      <c r="AI38" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ38" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK38" s="38" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="66" t="s">
-        <v>32</v>
+    <row r="39" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="69" t="s">
+        <v>33</v>
       </c>
       <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26">
         <v>44046</v>
       </c>
-      <c r="E39" s="26">
+      <c r="G39" s="26">
         <v>44052</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I39" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="29" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -5404,11 +5495,11 @@
       </c>
       <c r="O39" s="29" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P39" s="29" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q39" s="29" t="str">
         <f t="shared" si="5"/>
@@ -5439,11 +5530,11 @@
         <v/>
       </c>
       <c r="X39" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y39" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z39" s="29" t="str">
@@ -5482,31 +5573,33 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI39" s="30" t="str">
+      <c r="AI39" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ39" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK39" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
+    <row r="40" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="70"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13">
         <v>44053</v>
       </c>
-      <c r="E40" s="13">
+      <c r="G40" s="13">
         <v>44059</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I40" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="23" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5529,11 +5622,11 @@
       </c>
       <c r="O40" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="P40" s="23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="Q40" s="23" t="str">
         <f t="shared" si="5"/>
@@ -5557,18 +5650,18 @@
       </c>
       <c r="V40" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="W40" s="23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X40" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y40" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z40" s="23" t="str">
@@ -5607,33 +5700,35 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI40" s="31" t="str">
+      <c r="AI40" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ40" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK40" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
+    <row r="41" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="70"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13">
         <v>44060</v>
       </c>
-      <c r="E41" s="13">
+      <c r="G41" s="13">
         <v>44066</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="23" t="str">
-        <f t="shared" ref="H41:W54" si="8">IF(AND(H$4&gt;=$D41,H$4&lt;=$E41)," ","")</f>
-        <v/>
-      </c>
-      <c r="I41" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J41:Y54" si="8">IF(AND(J$4&gt;=$F41,J$4&lt;=$G41)," ","")</f>
         <v/>
       </c>
       <c r="K41" s="23" t="str">
@@ -5682,18 +5777,18 @@
       </c>
       <c r="V41" s="23" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="W41" s="23" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="X41" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y41" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z41" s="23" t="str">
@@ -5710,11 +5805,11 @@
       </c>
       <c r="AC41" s="23" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AD41" s="23" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AE41" s="23" t="str">
         <f t="shared" si="6"/>
@@ -5732,31 +5827,33 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI41" s="31" t="str">
+      <c r="AI41" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ41" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK41" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
+    <row r="42" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="70"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13">
         <v>44067</v>
       </c>
-      <c r="E42" s="13">
+      <c r="G42" s="13">
         <v>44073</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I42" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5814,11 +5911,11 @@
         <v/>
       </c>
       <c r="X42" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y42" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z42" s="23" t="str">
@@ -5835,11 +5932,11 @@
       </c>
       <c r="AC42" s="23" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AD42" s="23" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AE42" s="23" t="str">
         <f t="shared" si="6"/>
@@ -5857,27 +5954,29 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI42" s="31" t="str">
+      <c r="AI42" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ42" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK42" s="31" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
+    <row r="43" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="70"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I43" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5935,11 +6034,11 @@
         <v/>
       </c>
       <c r="X43" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y43" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z43" s="23" t="str">
@@ -5978,21 +6077,29 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI43" s="31" t="str">
+      <c r="AI43" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ43" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK43" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
+    <row r="44" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="70"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
@@ -6018,24 +6125,20 @@
       <c r="AF44" s="23"/>
       <c r="AG44" s="23"/>
       <c r="AH44" s="23"/>
-      <c r="AI44" s="31"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="31"/>
     </row>
-    <row r="45" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
+    <row r="45" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="70"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I45" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6093,11 +6196,11 @@
         <v/>
       </c>
       <c r="X45" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y45" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z45" s="23" t="str">
@@ -6136,27 +6239,29 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI45" s="31" t="str">
+      <c r="AI45" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ45" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK45" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="68"/>
+    <row r="46" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="71"/>
       <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I46" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6214,11 +6319,11 @@
         <v/>
       </c>
       <c r="X46" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y46" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z46" s="37" t="str">
@@ -6257,33 +6362,35 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI46" s="38" t="str">
+      <c r="AI46" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ46" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK46" s="38" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40" t="s">
-        <v>26</v>
+    <row r="47" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26">
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26">
         <v>44046</v>
       </c>
-      <c r="E47" s="26">
+      <c r="G47" s="26">
         <v>44052</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I47" s="29" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
       <c r="J47" s="29" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -6306,11 +6413,11 @@
       </c>
       <c r="O47" s="29" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P47" s="29" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q47" s="29" t="str">
         <f t="shared" si="8"/>
@@ -6341,11 +6448,11 @@
         <v/>
       </c>
       <c r="X47" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y47" s="29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z47" s="29" t="str">
@@ -6384,31 +6491,33 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI47" s="30" t="str">
+      <c r="AI47" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ47" s="29" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK47" s="30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
+    <row r="48" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13">
         <v>44053</v>
       </c>
-      <c r="E48" s="13">
+      <c r="G48" s="13">
         <v>44059</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I48" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6431,11 +6540,11 @@
       </c>
       <c r="O48" s="23" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="P48" s="23" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="Q48" s="23" t="str">
         <f t="shared" si="8"/>
@@ -6459,18 +6568,18 @@
       </c>
       <c r="V48" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="W48" s="23" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="X48" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y48" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z48" s="23" t="str">
@@ -6509,31 +6618,33 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI48" s="31" t="str">
+      <c r="AI48" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ48" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK48" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
+    <row r="49" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13">
         <v>44060</v>
       </c>
-      <c r="E49" s="13">
+      <c r="G49" s="13">
         <v>44066</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I49" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6584,18 +6695,18 @@
       </c>
       <c r="V49" s="23" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="W49" s="23" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="X49" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y49" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z49" s="23" t="str">
@@ -6612,11 +6723,11 @@
       </c>
       <c r="AC49" s="23" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AD49" s="23" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="AE49" s="23" t="str">
         <f t="shared" si="6"/>
@@ -6634,31 +6745,33 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI49" s="31" t="str">
+      <c r="AI49" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ49" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK49" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
+    <row r="50" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13">
         <v>44067</v>
       </c>
-      <c r="E50" s="13">
+      <c r="G50" s="13">
         <v>44073</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I50" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6716,11 +6829,11 @@
         <v/>
       </c>
       <c r="X50" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y50" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z50" s="23" t="str">
@@ -6737,11 +6850,11 @@
       </c>
       <c r="AC50" s="23" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AD50" s="23" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="AE50" s="23" t="str">
         <f t="shared" si="6"/>
@@ -6759,27 +6872,29 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI50" s="31" t="str">
+      <c r="AI50" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ50" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK50" s="31" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
+    <row r="51" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I51" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6837,11 +6952,11 @@
         <v/>
       </c>
       <c r="X51" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y51" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z51" s="23" t="str">
@@ -6880,21 +6995,29 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI51" s="31" t="str">
+      <c r="AI51" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ51" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK51" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
+    <row r="52" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="47"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
@@ -6920,24 +7043,20 @@
       <c r="AF52" s="23"/>
       <c r="AG52" s="23"/>
       <c r="AH52" s="23"/>
-      <c r="AI52" s="31"/>
+      <c r="AI52" s="23"/>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="31"/>
     </row>
-    <row r="53" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
+    <row r="53" spans="1:37" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="47"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I53" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="23" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6995,11 +7114,11 @@
         <v/>
       </c>
       <c r="X53" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y53" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z53" s="23" t="str">
@@ -7038,27 +7157,29 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI53" s="31" t="str">
+      <c r="AI53" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ53" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK53" s="31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="42"/>
+    <row r="54" spans="1:37" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="48"/>
       <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I54" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="37" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7116,11 +7237,11 @@
         <v/>
       </c>
       <c r="X54" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y54" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z54" s="37" t="str">
@@ -7159,1111 +7280,129 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AI54" s="38" t="str">
+      <c r="AI54" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ54" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK54" s="38" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26">
-        <v>44046</v>
-      </c>
-      <c r="E55" s="26">
-        <v>44052</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29" t="str">
-        <f t="shared" ref="H55:W56" si="9">IF(AND(H$4&gt;=$D55,H$4&lt;=$E55)," ","")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="S55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="U55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="V55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="W55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="X55" s="29" t="str">
-        <f t="shared" ref="X55:AI61" si="10">IF(AND(X$4&gt;=$D55,X$4&lt;=$E55)," ","")</f>
-        <v/>
-      </c>
-      <c r="Y55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AI55" s="30" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
     </row>
-    <row r="56" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13">
-        <v>44053</v>
-      </c>
-      <c r="E56" s="13">
-        <v>44059</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="W56" s="23" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="X56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH56" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AI56" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
     </row>
-    <row r="57" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13">
-        <v>44060</v>
-      </c>
-      <c r="E57" s="13">
-        <v>44066</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="23" t="str">
-        <f t="shared" ref="H57:W62" si="11">IF(AND(H$4&gt;=$D57,H$4&lt;=$E57)," ","")</f>
-        <v/>
-      </c>
-      <c r="I57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="V57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W57" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="X57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Z57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AA57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AB57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AC57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH57" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AI57" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
     </row>
-    <row r="58" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13">
-        <v>44067</v>
-      </c>
-      <c r="E58" s="13">
-        <v>44073</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="V58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="W58" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="X58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AD58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AE58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AF58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AG58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AH58" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AI58" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
     </row>
-    <row r="59" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="44"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="V59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="W59" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="X59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH59" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AI59" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
     </row>
-    <row r="60" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="44"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="V60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="W60" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="X60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH60" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AI60" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
     </row>
-    <row r="61" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="V61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="W61" s="23" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="X61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Y61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Z61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AA61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AG61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AH61" s="23" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AI61" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+    <row r="1048521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048521" s="5"/>
     </row>
-    <row r="62" spans="1:35" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="45"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="U62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="V62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="W62" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="X62" s="37" t="str">
-        <f t="shared" ref="X62:AI62" si="12">IF(AND(X$4&gt;=$D62,X$4&lt;=$E62)," ","")</f>
-        <v/>
-      </c>
-      <c r="Y62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Z62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AA62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AB62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AC62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AD62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AF62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AG62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AH62" s="37" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AI62" s="38" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
+    <row r="1048522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048522" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+    <row r="1048523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048523" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
+    <row r="1048524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048524" s="3"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
+    <row r="1048525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048525" s="3"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
+    <row r="1048526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048526" s="3"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
+    <row r="1048548" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048548" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
+    <row r="1048549" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048549" s="4"/>
     </row>
-    <row r="1048529" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048529" s="5"/>
+    <row r="1048550" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048550" s="4"/>
     </row>
-    <row r="1048530" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048530" s="4"/>
+    <row r="1048551" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048551" s="3"/>
     </row>
-    <row r="1048531" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048531" s="4"/>
-    </row>
-    <row r="1048532" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048532" s="3"/>
-    </row>
-    <row r="1048533" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048533" s="3"/>
-    </row>
-    <row r="1048534" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048534" s="3"/>
-    </row>
-    <row r="1048556" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048556" s="5"/>
-    </row>
-    <row r="1048557" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048557" s="4"/>
-    </row>
-    <row r="1048558" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048558" s="4"/>
-    </row>
-    <row r="1048559" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048559" s="3"/>
-    </row>
-    <row r="1048560" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048560" s="3"/>
+    <row r="1048552" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048552" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="V5:AB5"/>
-    <mergeCell ref="AC5:AI5"/>
+  <mergeCells count="22">
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AE5:AK5"/>
     <mergeCell ref="A39:A46"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H3:AI3"/>
-    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="J3:AK3"/>
+    <mergeCell ref="A1:F2"/>
     <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
     <mergeCell ref="A7:A14"/>
+    <mergeCell ref="Q5:W5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H7:AI14">
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+  <conditionalFormatting sqref="J7:AK14">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:AI22">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+  <conditionalFormatting sqref="J15:AK22">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:AI30">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+  <conditionalFormatting sqref="J23:AK30">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:AI38">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+  <conditionalFormatting sqref="J31:AK38">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:AI46">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="J39:AK46">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:AI62">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47:AI54">
+  <conditionalFormatting sqref="J47:AK54">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$E$2:$G$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$G$2:$I$2</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/개발 7팀 최종 팀프로젝트 산출물 제출/4) 개발 0팀_프로젝트_GanttChart.xlsx
+++ b/개발 7팀 최종 팀프로젝트 산출물 제출/4) 개발 0팀_프로젝트_GanttChart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="61">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="67">
   <x:si>
     <x:t>시나리오작성</x:t>
   </x:si>
@@ -198,7 +198,25 @@
     <x:t>화면 디자인</x:t>
   </x:si>
   <x:si>
+    <x:t>현재 상영중인 영화 순위 API</x:t>
+  </x:si>
+  <x:si>
+    <x:t>API</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AJAX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영화 순위별 포스터</x:t>
+  </x:si>
+  <x:si>
     <x:t>좋아요 순위별 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요 많이 받은 순위별 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 상영중인 영화 순위 포스터 API</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2670,8 +2688,8 @@
   <x:dimension ref="A1:AK1048552"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="9" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="C17" activeCellId="0" sqref="C17:C17"/>
+      <x:pane xSplit="9" ySplit="6" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="D28" activeCellId="0" sqref="D28:D28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="16.399999999999999"/>
@@ -5079,18 +5097,22 @@
       <x:c r="B23" s="28" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C23" s="28"/>
-      <x:c r="D23" s="28"/>
+      <x:c r="C23" s="28" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D23" s="28" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="E23" s="29"/>
       <x:c r="F23" s="30">
         <x:v>44341</x:v>
       </x:c>
       <x:c r="G23" s="30">
-        <x:v>44347</x:v>
+        <x:v>44346</x:v>
       </x:c>
       <x:c r="H23" s="83">
         <x:f t="shared" si="2"/>
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I23" s="32"/>
       <x:c r="J23" s="33" t="str">
@@ -5139,7 +5161,7 @@
       </x:c>
       <x:c r="U23" s="33" t="str">
         <x:f t="shared" si="5"/>
-        <x:v xml:space="preserve"> </x:v>
+        <x:v/>
       </x:c>
       <x:c r="V23" s="33" t="str">
         <x:f t="shared" si="5"/>
@@ -5211,14 +5233,18 @@
       <x:c r="B24" s="15" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C24" s="15"/>
-      <x:c r="D24" s="15"/>
+      <x:c r="C24" s="15" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D24" s="15" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E24" s="16"/>
       <x:c r="F24" s="17">
-        <x:v>44348</x:v>
+        <x:v>44347</x:v>
       </x:c>
       <x:c r="G24" s="17">
-        <x:v>44354</x:v>
+        <x:v>44353</x:v>
       </x:c>
       <x:c r="H24" s="18">
         <x:f t="shared" si="2"/>
@@ -5271,7 +5297,7 @@
       </x:c>
       <x:c r="U24" s="27" t="str">
         <x:f t="shared" si="5"/>
-        <x:v/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="V24" s="27" t="str">
         <x:f t="shared" si="5"/>
@@ -5299,7 +5325,7 @@
       </x:c>
       <x:c r="AB24" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v xml:space="preserve"> </x:v>
+        <x:v/>
       </x:c>
       <x:c r="AC24" s="27" t="str">
         <x:f t="shared" si="4"/>
@@ -5343,14 +5369,18 @@
       <x:c r="B25" s="15" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C25" s="15"/>
-      <x:c r="D25" s="15"/>
+      <x:c r="C25" s="15" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D25" s="15" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="E25" s="16"/>
       <x:c r="F25" s="17">
-        <x:v>44355</x:v>
+        <x:v>44354</x:v>
       </x:c>
       <x:c r="G25" s="17">
-        <x:v>44357</x:v>
+        <x:v>44356</x:v>
       </x:c>
       <x:c r="H25" s="18">
         <x:f t="shared" si="2"/>
@@ -5431,7 +5461,7 @@
       </x:c>
       <x:c r="AB25" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AC25" s="27" t="str">
         <x:f t="shared" si="4"/>
@@ -5443,7 +5473,7 @@
       </x:c>
       <x:c r="AE25" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v xml:space="preserve"> </x:v>
+        <x:v/>
       </x:c>
       <x:c r="AF25" s="27" t="str">
         <x:f t="shared" si="4"/>
@@ -5473,16 +5503,20 @@
     <x:row r="26" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A26" s="66"/>
       <x:c r="B26" s="15" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C26" s="15"/>
-      <x:c r="D26" s="15"/>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C26" s="15" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D26" s="15" t="s">
+        <x:v>66</x:v>
+      </x:c>
       <x:c r="E26" s="16"/>
       <x:c r="F26" s="17">
-        <x:v>44357</x:v>
+        <x:v>44356</x:v>
       </x:c>
       <x:c r="G26" s="17">
-        <x:v>44359</x:v>
+        <x:v>44358</x:v>
       </x:c>
       <x:c r="H26" s="18">
         <x:f t="shared" si="2"/>
@@ -5571,7 +5605,7 @@
       </x:c>
       <x:c r="AD26" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AE26" s="27" t="str">
         <x:f t="shared" si="4"/>
@@ -5583,7 +5617,7 @@
       </x:c>
       <x:c r="AG26" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v xml:space="preserve"> </x:v>
+        <x:v/>
       </x:c>
       <x:c r="AH26" s="27" t="str">
         <x:f t="shared" si="4"/>
@@ -5605,20 +5639,24 @@
     <x:row r="27" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A27" s="66"/>
       <x:c r="B27" s="15" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C27" s="15"/>
-      <x:c r="D27" s="15"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C27" s="15" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D27" s="15" t="s">
+        <x:v>65</x:v>
+      </x:c>
       <x:c r="E27" s="16"/>
       <x:c r="F27" s="17">
+        <x:v>44358</x:v>
+      </x:c>
+      <x:c r="G27" s="17">
         <x:v>44360</x:v>
-      </x:c>
-      <x:c r="G27" s="17">
-        <x:v>44363</x:v>
       </x:c>
       <x:c r="H27" s="18">
         <x:f t="shared" si="2"/>
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I27" s="19"/>
       <x:c r="J27" s="27" t="str">
@@ -5711,11 +5749,11 @@
       </x:c>
       <x:c r="AF27" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AG27" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AH27" s="27" t="str">
         <x:f t="shared" si="4"/>
@@ -5723,28 +5761,36 @@
       </x:c>
       <x:c r="AI27" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v xml:space="preserve"> </x:v>
+        <x:v/>
       </x:c>
       <x:c r="AJ27" s="27" t="str">
         <x:f t="shared" si="4"/>
-        <x:v xml:space="preserve"> </x:v>
+        <x:v/>
       </x:c>
       <x:c r="AK27" s="35" t="str">
         <x:f t="shared" si="4"/>
-        <x:v xml:space="preserve"> </x:v>
+        <x:v/>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A28" s="66"/>
-      <x:c r="B28" s="15"/>
-      <x:c r="C28" s="15"/>
+      <x:c r="B28" s="15" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C28" s="15" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="D28" s="15"/>
       <x:c r="E28" s="16"/>
-      <x:c r="F28" s="17"/>
-      <x:c r="G28" s="17"/>
+      <x:c r="F28" s="17">
+        <x:v>44361</x:v>
+      </x:c>
+      <x:c r="G28" s="17">
+        <x:v>44363</x:v>
+      </x:c>
       <x:c r="H28" s="18">
         <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I28" s="19"/>
       <x:c r="J28" s="27"/>

--- a/개발 7팀 최종 팀프로젝트 산출물 제출/4) 개발 0팀_프로젝트_GanttChart.xlsx
+++ b/개발 7팀 최종 팀프로젝트 산출물 제출/4) 개발 0팀_프로젝트_GanttChart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="67">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="67">
   <x:si>
     <x:t>시나리오작성</x:t>
   </x:si>
@@ -2688,8 +2688,8 @@
   <x:dimension ref="A1:AK1048552"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="9" ySplit="6" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="D28" activeCellId="0" sqref="D28:D28"/>
+      <x:pane xSplit="9" ySplit="6" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="G29" activeCellId="0" sqref="G29:G29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="16.399999999999999"/>
@@ -5114,7 +5114,9 @@
         <x:f t="shared" si="2"/>
         <x:v>6</x:v>
       </x:c>
-      <x:c r="I23" s="32"/>
+      <x:c r="I23" s="84" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J23" s="33" t="str">
         <x:f t="shared" ref="J23:Y40" si="5">IF(AND(J$4&gt;=$F23,J$4&lt;=$G23)," ","")</x:f>
         <x:v/>
@@ -5250,7 +5252,9 @@
         <x:f t="shared" si="2"/>
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I24" s="19"/>
+      <x:c r="I24" s="85" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J24" s="27" t="str">
         <x:f t="shared" si="5"/>
         <x:v/>
@@ -5386,7 +5390,9 @@
         <x:f t="shared" si="2"/>
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I25" s="19"/>
+      <x:c r="I25" s="85" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J25" s="27" t="str">
         <x:f t="shared" si="5"/>
         <x:v/>
@@ -5522,7 +5528,9 @@
         <x:f t="shared" si="2"/>
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I26" s="19"/>
+      <x:c r="I26" s="85" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J26" s="27" t="str">
         <x:f t="shared" si="5"/>
         <x:v/>
@@ -5658,7 +5666,9 @@
         <x:f t="shared" si="2"/>
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I27" s="19"/>
+      <x:c r="I27" s="85" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J27" s="27" t="str">
         <x:f t="shared" si="5"/>
         <x:v/>
@@ -5780,7 +5790,9 @@
       <x:c r="C28" s="15" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D28" s="15"/>
+      <x:c r="D28" s="15" t="s">
+        <x:v>59</x:v>
+      </x:c>
       <x:c r="E28" s="16"/>
       <x:c r="F28" s="17">
         <x:v>44361</x:v>
@@ -5792,7 +5804,9 @@
         <x:f t="shared" si="2"/>
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I28" s="19"/>
+      <x:c r="I28" s="85" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J28" s="27"/>
       <x:c r="K28" s="27"/>
       <x:c r="L28" s="27"/>
@@ -7162,7 +7176,7 @@
         <x:f t="shared" si="2"/>
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I40" s="32" t="s">
+      <x:c r="I40" s="19" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="J40" s="27" t="str">
@@ -7300,7 +7314,7 @@
         <x:f t="shared" si="2"/>
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I41" s="32" t="s">
+      <x:c r="I41" s="19" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="J41" s="27" t="str">
@@ -7438,7 +7452,7 @@
         <x:f t="shared" si="2"/>
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I42" s="32" t="s">
+      <x:c r="I42" s="19" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="J42" s="27" t="str">
@@ -7576,7 +7590,7 @@
         <x:f t="shared" si="2"/>
         <x:v>2</x:v>
       </x:c>
-      <x:c r="I43" s="32" t="s">
+      <x:c r="I43" s="19" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="J43" s="27" t="str">
@@ -7714,7 +7728,7 @@
         <x:f t="shared" si="2"/>
         <x:v>4</x:v>
       </x:c>
-      <x:c r="I44" s="32" t="s">
+      <x:c r="I44" s="19" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="J44" s="27"/>
@@ -7777,7 +7791,7 @@
         <x:f t="shared" si="2"/>
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I45" s="32" t="s">
+      <x:c r="I45" s="19" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="J45" s="27" t="str">
@@ -7915,7 +7929,7 @@
         <x:f t="shared" si="2"/>
         <x:v>4</x:v>
       </x:c>
-      <x:c r="I46" s="32" t="s">
+      <x:c r="I46" s="19" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="J46" s="41" t="str">

--- a/개발 7팀 최종 팀프로젝트 산출물 제출/4) 개발 0팀_프로젝트_GanttChart.xlsx
+++ b/개발 7팀 최종 팀프로젝트 산출물 제출/4) 개발 0팀_프로젝트_GanttChart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="67">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="72">
   <x:si>
     <x:t>시나리오작성</x:t>
   </x:si>
@@ -198,6 +198,15 @@
     <x:t>화면 디자인</x:t>
   </x:si>
   <x:si>
+    <x:t>DB설계(리뷰)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영화관 위치 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영화 리뷰 게시판</x:t>
+  </x:si>
+  <x:si>
     <x:t>현재 상영중인 영화 순위 API</x:t>
   </x:si>
   <x:si>
@@ -214,6 +223,12 @@
   </x:si>
   <x:si>
     <x:t>좋아요 많이 받은 순위별 게시글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>About 게시판 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영화 검색(REACT)</x:t>
   </x:si>
   <x:si>
     <x:t>현재 상영중인 영화 순위 포스터 API</x:t>
@@ -2685,11 +2700,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:AK1048552"/>
+  <x:dimension ref="A1:AK1048550"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="9" ySplit="6" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="G29" activeCellId="0" sqref="G29:G29"/>
+      <x:pane xSplit="9" ySplit="6" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="L44" activeCellId="0" sqref="L44:L44"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="16.399999999999999"/>
@@ -3066,7 +3081,7 @@
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="K7" s="33" t="str">
-        <x:f t="shared" ref="K7:Z21" si="0">IF(AND(K$4&gt;=$F7,K$4&lt;=$G7)," ","")</x:f>
+        <x:f t="shared" ref="J7:Z52" si="0">IF(AND(K$4&gt;=$F7,K$4&lt;=$G7)," ","")</x:f>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="L7" s="33" t="str">
@@ -3189,14 +3204,14 @@
         <x:v>44338</x:v>
       </x:c>
       <x:c r="H8" s="18">
-        <x:f t="shared" ref="H8:H54" si="2">G8-F8+1</x:f>
+        <x:f t="shared" ref="H8:H46" si="2">G8-F8+1</x:f>
         <x:v>2</x:v>
       </x:c>
       <x:c r="I8" s="85" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="J8" s="27" t="str">
-        <x:f t="shared" ref="J8:Y22" si="3">IF(AND(J$4&gt;=$F8,J$4&lt;=$G8)," ","")</x:f>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K8" s="27" t="str">
@@ -3330,7 +3345,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J9" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K9" s="27" t="str">
@@ -3464,7 +3479,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J10" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K10" s="27" t="str">
@@ -3590,7 +3605,7 @@
       </x:c>
       <x:c r="I11" s="19"/>
       <x:c r="J11" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K11" s="27" t="str">
@@ -3716,7 +3731,7 @@
       </x:c>
       <x:c r="I12" s="19"/>
       <x:c r="J12" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K12" s="27" t="str">
@@ -3842,7 +3857,7 @@
       </x:c>
       <x:c r="I13" s="19"/>
       <x:c r="J13" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K13" s="27" t="str">
@@ -3968,7 +3983,7 @@
       </x:c>
       <x:c r="I14" s="40"/>
       <x:c r="J14" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K14" s="41" t="str">
@@ -4096,7 +4111,7 @@
       </x:c>
       <x:c r="I15" s="32"/>
       <x:c r="J15" s="33" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K15" s="33" t="str">
@@ -4222,7 +4237,7 @@
       </x:c>
       <x:c r="I16" s="19"/>
       <x:c r="J16" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K16" s="27" t="str">
@@ -4348,7 +4363,7 @@
       </x:c>
       <x:c r="I17" s="19"/>
       <x:c r="J17" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K17" s="27" t="str">
@@ -4474,7 +4489,7 @@
       </x:c>
       <x:c r="I18" s="19"/>
       <x:c r="J18" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K18" s="27" t="str">
@@ -4600,7 +4615,7 @@
       </x:c>
       <x:c r="I19" s="19"/>
       <x:c r="J19" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K19" s="27" t="str">
@@ -4726,7 +4741,7 @@
       </x:c>
       <x:c r="I20" s="19"/>
       <x:c r="J20" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K20" s="27" t="str">
@@ -4852,7 +4867,7 @@
       </x:c>
       <x:c r="I21" s="19"/>
       <x:c r="J21" s="27" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K21" s="27" t="str">
@@ -4916,7 +4931,7 @@
         <x:v/>
       </x:c>
       <x:c r="Z21" s="27" t="str">
-        <x:f t="shared" ref="Z21:AK35" si="4">IF(AND(Z$4&gt;=$F21,Z$4&lt;=$G21)," ","")</x:f>
+        <x:f t="shared" ref="Z21:AK35" si="3">IF(AND(Z$4&gt;=$F21,Z$4&lt;=$G21)," ","")</x:f>
         <x:v/>
       </x:c>
       <x:c r="AA21" s="27" t="str">
@@ -4978,115 +4993,115 @@
       </x:c>
       <x:c r="I22" s="40"/>
       <x:c r="J22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y22" s="41" t="str">
-        <x:f t="shared" si="3"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ22" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK22" s="42" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -5118,115 +5133,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J23" s="33" t="str">
-        <x:f t="shared" ref="J23:Y40" si="5">IF(AND(J$4&gt;=$F23,J$4&lt;=$G23)," ","")</x:f>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="P23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Q23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="R23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="S23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="T23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="U23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y23" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ23" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK23" s="34" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -5236,7 +5251,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C24" s="15" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D24" s="15" t="s">
         <x:v>37</x:v>
@@ -5256,115 +5271,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="V24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="W24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="X24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Y24" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Z24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AA24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AB24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ24" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK24" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -5374,10 +5389,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C25" s="15" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D25" s="15" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E25" s="16"/>
       <x:c r="F25" s="17">
@@ -5394,128 +5409,128 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y25" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AC25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AD25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AE25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ25" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK25" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A26" s="66"/>
       <x:c r="B26" s="15" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C26" s="15" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D26" s="15" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E26" s="16"/>
       <x:c r="F26" s="17">
@@ -5532,128 +5547,128 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y26" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AE26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AF26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AG26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ26" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK26" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A27" s="66"/>
       <x:c r="B27" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C27" s="15" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D27" s="15" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E27" s="16"/>
       <x:c r="F27" s="17">
@@ -5670,115 +5685,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y27" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AG27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AH27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AI27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ27" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK27" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -5850,115 +5865,115 @@
       </x:c>
       <x:c r="I29" s="19"/>
       <x:c r="J29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y29" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ29" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK29" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -5976,115 +5991,115 @@
       </x:c>
       <x:c r="I30" s="40"/>
       <x:c r="J30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y30" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ30" s="41" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK30" s="42" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -6104,115 +6119,115 @@
       </x:c>
       <x:c r="I31" s="32"/>
       <x:c r="J31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y31" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ31" s="33" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK31" s="34" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -6230,115 +6245,115 @@
       </x:c>
       <x:c r="I32" s="19"/>
       <x:c r="J32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y32" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ32" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK32" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -6356,115 +6371,115 @@
       </x:c>
       <x:c r="I33" s="19"/>
       <x:c r="J33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y33" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ33" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK33" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -6482,115 +6497,115 @@
       </x:c>
       <x:c r="I34" s="19"/>
       <x:c r="J34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y34" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ34" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK34" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -6608,115 +6623,115 @@
       </x:c>
       <x:c r="I35" s="19"/>
       <x:c r="J35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y35" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AA35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AB35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AC35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AD35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AE35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AF35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AG35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AH35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AI35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AJ35" s="27" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
       <x:c r="AK35" s="35" t="str">
-        <x:f t="shared" si="4"/>
+        <x:f t="shared" si="3"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -6776,115 +6791,115 @@
       </x:c>
       <x:c r="I37" s="19"/>
       <x:c r="J37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y37" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z37" s="27" t="str">
-        <x:f t="shared" ref="Z37:AK54" si="6">IF(AND(Z$4&gt;=$F37,Z$4&lt;=$G37)," ","")</x:f>
+        <x:f t="shared" ref="Z37:AK52" si="4">IF(AND(Z$4&gt;=$F37,Z$4&lt;=$G37)," ","")</x:f>
         <x:v/>
       </x:c>
       <x:c r="AA37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ37" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK37" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -6902,63 +6917,63 @@
       </x:c>
       <x:c r="I38" s="40"/>
       <x:c r="J38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X38" s="41" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y38" s="41" t="str">
@@ -6966,51 +6981,51 @@
         <x:v/>
       </x:c>
       <x:c r="Z38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ38" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK38" s="42" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -7042,115 +7057,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="N39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="O39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="P39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y39" s="33" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ39" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK39" s="34" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -7180,115 +7195,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="P40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Q40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="R40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="S40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="T40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y40" s="27" t="str">
-        <x:f t="shared" si="5"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ40" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK40" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -7318,115 +7333,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J41" s="27" t="str">
-        <x:f t="shared" ref="J41:Y54" si="7">IF(AND(J$4&gt;=$F41,J$4&lt;=$G41)," ","")</x:f>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="T41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="U41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="V41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="W41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="X41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Y41" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Z41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ41" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK41" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -7456,115 +7471,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y42" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Z42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AA42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AB42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ42" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK42" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -7594,115 +7609,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y43" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AB43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AC43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ43" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK43" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -7751,15 +7766,15 @@
       <x:c r="AA44" s="27"/>
       <x:c r="AB44" s="27"/>
       <x:c r="AC44" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AD44" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AE44" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AF44" s="27"/>
@@ -7795,115 +7810,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y45" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AG45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AH45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AI45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ45" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK45" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
@@ -7933,115 +7948,115 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="J46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y46" s="41" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AI46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AJ46" s="41" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AK46" s="42" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v xml:space="preserve"> </x:v>
       </x:c>
     </x:row>
@@ -8049,978 +8064,842 @@
       <x:c r="A47" s="55" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B47" s="28"/>
+      <x:c r="B47" s="28" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="C47" s="28"/>
       <x:c r="D47" s="28"/>
       <x:c r="E47" s="29"/>
-      <x:c r="F47" s="30"/>
-      <x:c r="G47" s="30"/>
-      <x:c r="H47" s="83">
-        <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I47" s="32"/>
+      <x:c r="F47" s="30">
+        <x:v>44341</x:v>
+      </x:c>
+      <x:c r="G47" s="30">
+        <x:v>44351</x:v>
+      </x:c>
+      <x:c r="H47" s="31">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I47" s="32" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J47" s="33" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K47" s="33" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L47" s="33" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M47" s="33" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N47" s="33" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="P47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Q47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="R47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="S47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="T47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="U47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="V47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="W47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="X47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Y47" s="33" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Z47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="AA47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI47" s="33" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ47" s="33" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AK47" s="34" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AK47" s="33" t="str">
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A48" s="56"/>
-      <x:c r="B48" s="15"/>
+      <x:c r="B48" s="15" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="C48" s="15"/>
       <x:c r="D48" s="15"/>
       <x:c r="E48" s="16"/>
-      <x:c r="F48" s="17"/>
-      <x:c r="G48" s="17"/>
+      <x:c r="F48" s="17">
+        <x:v>44351</x:v>
+      </x:c>
+      <x:c r="G48" s="17">
+        <x:v>44357</x:v>
+      </x:c>
       <x:c r="H48" s="18">
-        <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I48" s="19"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I48" s="19" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X48" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y48" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
+        <x:f t="shared" si="0"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="Z48" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AA48" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AB48" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AC48" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AD48" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AE48" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AF48" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG48" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH48" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI48" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AJ48" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK48" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A49" s="56"/>
-      <x:c r="B49" s="15"/>
+      <x:c r="B49" s="15" t="s">
+        <x:v>62</x:v>
+      </x:c>
       <x:c r="C49" s="15"/>
       <x:c r="D49" s="15"/>
       <x:c r="E49" s="16"/>
-      <x:c r="F49" s="17"/>
-      <x:c r="G49" s="17"/>
+      <x:c r="F49" s="17">
+        <x:v>44357</x:v>
+      </x:c>
+      <x:c r="G49" s="17">
+        <x:v>44361</x:v>
+      </x:c>
       <x:c r="H49" s="18">
-        <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I49" s="19"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I49" s="19" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y49" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z49" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA49" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB49" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC49" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD49" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE49" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AF49" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AG49" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AH49" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AI49" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AJ49" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AK49" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A50" s="56"/>
-      <x:c r="B50" s="15"/>
+      <x:c r="B50" s="15" t="s">
+        <x:v>60</x:v>
+      </x:c>
       <x:c r="C50" s="15"/>
       <x:c r="D50" s="15"/>
       <x:c r="E50" s="16"/>
-      <x:c r="F50" s="17"/>
-      <x:c r="G50" s="17"/>
+      <x:c r="F50" s="17">
+        <x:v>44357</x:v>
+      </x:c>
+      <x:c r="G50" s="17">
+        <x:v>44361</x:v>
+      </x:c>
       <x:c r="H50" s="18">
-        <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I50" s="19"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I50" s="19" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y50" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z50" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="AA50" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB50" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC50" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD50" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE50" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AF50" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AG50" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AH50" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AI50" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AJ50" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AK50" s="35" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AK50" s="27" t="str">
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:37" ht="14.1" customHeight="1">
       <x:c r="A51" s="56"/>
-      <x:c r="B51" s="15"/>
+      <x:c r="B51" s="15" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="C51" s="15"/>
       <x:c r="D51" s="15"/>
       <x:c r="E51" s="16"/>
-      <x:c r="F51" s="17"/>
-      <x:c r="G51" s="17"/>
+      <x:c r="F51" s="17">
+        <x:v>44361</x:v>
+      </x:c>
+      <x:c r="G51" s="17">
+        <x:v>44363</x:v>
+      </x:c>
       <x:c r="H51" s="18">
-        <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I51" s="19"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I51" s="19" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="J51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="K51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="L51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="M51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="N51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="O51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="P51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Q51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="R51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="S51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="T51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="U51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="V51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="W51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="X51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Y51" s="27" t="str">
-        <x:f t="shared" si="7"/>
+        <x:f t="shared" si="0"/>
         <x:v/>
       </x:c>
       <x:c r="Z51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AA51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AB51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AC51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AD51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AE51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AF51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AG51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AH51" s="27" t="str">
-        <x:f t="shared" si="6"/>
+        <x:f t="shared" si="4"/>
         <x:v/>
       </x:c>
       <x:c r="AI51" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AJ51" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
       <x:c r="AK51" s="35" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
+        <x:f t="shared" si="4"/>
+        <x:v xml:space="preserve"> </x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:37" ht="14.1" customHeight="1">
-      <x:c r="A52" s="56"/>
-      <x:c r="B52" s="15"/>
-      <x:c r="C52" s="15"/>
-      <x:c r="D52" s="15"/>
-      <x:c r="E52" s="16"/>
-      <x:c r="F52" s="17"/>
-      <x:c r="G52" s="17"/>
-      <x:c r="H52" s="18">
-        <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I52" s="19"/>
-      <x:c r="J52" s="27"/>
-      <x:c r="K52" s="27"/>
-      <x:c r="L52" s="27"/>
-      <x:c r="M52" s="27"/>
-      <x:c r="N52" s="27"/>
-      <x:c r="O52" s="27"/>
-      <x:c r="P52" s="27"/>
-      <x:c r="Q52" s="27"/>
-      <x:c r="R52" s="27"/>
-      <x:c r="S52" s="27"/>
-      <x:c r="T52" s="27"/>
-      <x:c r="U52" s="27"/>
-      <x:c r="V52" s="27"/>
-      <x:c r="W52" s="27"/>
-      <x:c r="X52" s="27"/>
-      <x:c r="Y52" s="27"/>
-      <x:c r="Z52" s="27"/>
-      <x:c r="AA52" s="27"/>
-      <x:c r="AB52" s="27"/>
-      <x:c r="AC52" s="27"/>
-      <x:c r="AD52" s="27"/>
-      <x:c r="AE52" s="27"/>
-      <x:c r="AF52" s="27"/>
-      <x:c r="AG52" s="27"/>
-      <x:c r="AH52" s="27"/>
-      <x:c r="AI52" s="27"/>
-      <x:c r="AJ52" s="27"/>
-      <x:c r="AK52" s="35"/>
+      <x:c r="A52" s="57"/>
+      <x:c r="B52" s="36"/>
+      <x:c r="C52" s="36"/>
+      <x:c r="D52" s="36"/>
+      <x:c r="E52" s="37"/>
+      <x:c r="F52" s="38"/>
+      <x:c r="G52" s="38"/>
+      <x:c r="H52" s="39"/>
+      <x:c r="I52" s="40"/>
+      <x:c r="J52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="K52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="L52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="M52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="N52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="O52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="P52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="Q52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="R52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="S52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="T52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="U52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="V52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="W52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="X52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="Y52" s="41" t="str">
+        <x:f t="shared" si="0"/>
+        <x:v/>
+      </x:c>
+      <x:c r="Z52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AA52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AB52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AC52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AD52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AE52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AF52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AG52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AH52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AI52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AJ52" s="41" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
+      <x:c r="AK52" s="42" t="str">
+        <x:f t="shared" si="4"/>
+        <x:v/>
+      </x:c>
     </x:row>
-    <x:row r="53" spans="1:37" ht="14.1" customHeight="1">
-      <x:c r="A53" s="56"/>
-      <x:c r="B53" s="15"/>
-      <x:c r="C53" s="15"/>
-      <x:c r="D53" s="15"/>
-      <x:c r="E53" s="16"/>
-      <x:c r="F53" s="17"/>
-      <x:c r="G53" s="17"/>
-      <x:c r="H53" s="18">
-        <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I53" s="19"/>
-      <x:c r="J53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="K53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="L53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="M53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="N53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="O53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="P53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="Q53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="R53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="S53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="T53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="U53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="V53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="W53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="X53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="Y53" s="27" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="Z53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AA53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AB53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AC53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AD53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AE53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AF53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AG53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AH53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AI53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AJ53" s="27" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AK53" s="35" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
+    <x:row r="75" spans="1:1">
+      <x:c r="A75" s="10"/>
     </x:row>
-    <x:row r="54" spans="1:37" ht="14.1" customHeight="1">
-      <x:c r="A54" s="57"/>
-      <x:c r="B54" s="36"/>
-      <x:c r="C54" s="36"/>
-      <x:c r="D54" s="36"/>
-      <x:c r="E54" s="37"/>
-      <x:c r="F54" s="38"/>
-      <x:c r="G54" s="38"/>
-      <x:c r="H54" s="39">
-        <x:f t="shared" si="2"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I54" s="40"/>
-      <x:c r="J54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="K54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="L54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="M54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="N54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="O54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="P54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="Q54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="R54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="S54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="T54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="U54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="V54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="W54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="X54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="Y54" s="41" t="str">
-        <x:f t="shared" si="7"/>
-        <x:v/>
-      </x:c>
-      <x:c r="Z54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AA54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AB54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AC54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AD54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AE54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AF54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AG54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AH54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AI54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AJ54" s="41" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
-      <x:c r="AK54" s="42" t="str">
-        <x:f t="shared" si="6"/>
-        <x:v/>
-      </x:c>
+    <x:row r="76" spans="1:1">
+      <x:c r="A76" s="9"/>
     </x:row>
     <x:row r="77" spans="1:1">
-      <x:c r="A77" s="10"/>
+      <x:c r="A77" s="9"/>
     </x:row>
     <x:row r="78" spans="1:1">
-      <x:c r="A78" s="9"/>
+      <x:c r="A78" s="8"/>
     </x:row>
     <x:row r="79" spans="1:1">
-      <x:c r="A79" s="9"/>
+      <x:c r="A79" s="8"/>
     </x:row>
     <x:row r="80" spans="1:1">
       <x:c r="A80" s="8"/>
     </x:row>
-    <x:row r="81" spans="1:1">
-      <x:c r="A81" s="8"/>
+    <x:row r="1048519" spans="1:1">
+      <x:c r="A1048519" s="10"/>
     </x:row>
-    <x:row r="82" spans="1:1">
-      <x:c r="A82" s="8"/>
+    <x:row r="1048520" spans="1:1">
+      <x:c r="A1048520" s="9"/>
     </x:row>
     <x:row r="1048521" spans="1:1">
-      <x:c r="A1048521" s="10"/>
+      <x:c r="A1048521" s="9"/>
     </x:row>
     <x:row r="1048522" spans="1:1">
-      <x:c r="A1048522" s="9"/>
+      <x:c r="A1048522" s="8"/>
     </x:row>
     <x:row r="1048523" spans="1:1">
-      <x:c r="A1048523" s="9"/>
+      <x:c r="A1048523" s="8"/>
     </x:row>
     <x:row r="1048524" spans="1:1">
       <x:c r="A1048524" s="8"/>
     </x:row>
-    <x:row r="1048525" spans="1:1">
-      <x:c r="A1048525" s="8"/>
+    <x:row r="1048546" spans="1:1">
+      <x:c r="A1048546" s="10"/>
     </x:row>
-    <x:row r="1048526" spans="1:1">
-      <x:c r="A1048526" s="8"/>
+    <x:row r="1048547" spans="1:1">
+      <x:c r="A1048547" s="9"/>
     </x:row>
     <x:row r="1048548" spans="1:1">
-      <x:c r="A1048548" s="10"/>
+      <x:c r="A1048548" s="9"/>
     </x:row>
     <x:row r="1048549" spans="1:1">
-      <x:c r="A1048549" s="9"/>
+      <x:c r="A1048549" s="8"/>
     </x:row>
     <x:row r="1048550" spans="1:1">
-      <x:c r="A1048550" s="9"/>
-    </x:row>
-    <x:row r="1048551" spans="1:1">
-      <x:c r="A1048551" s="8"/>
-    </x:row>
-    <x:row r="1048552" spans="1:1">
-      <x:c r="A1048552" s="8"/>
+      <x:c r="A1048550" s="8"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="24">
@@ -9028,7 +8907,7 @@
     <x:mergeCell ref="C3:C5"/>
     <x:mergeCell ref="D3:D5"/>
     <x:mergeCell ref="A1:F2"/>
-    <x:mergeCell ref="A47:A54"/>
+    <x:mergeCell ref="A47:A52"/>
     <x:mergeCell ref="G1:I1"/>
     <x:mergeCell ref="A31:A38"/>
     <x:mergeCell ref="A15:A22"/>
@@ -9074,13 +8953,13 @@
       <x:formula>" "</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="J47:AK54">
+  <x:conditionalFormatting sqref="J47:AK52">
     <x:cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <x:formula>" "</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:dataValidations count="1">
-    <x:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048576">
+    <x:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1048574">
       <x:formula1>$G$2:$I$2</x:formula1>
     </x:dataValidation>
   </x:dataValidations>
